--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122012a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122012a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +582,27 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.770496255757845</v>
+      </c>
+      <c r="D5">
+        <v>0.8455606707034417</v>
+      </c>
+      <c r="E5">
+        <v>1.141126881370727</v>
+      </c>
+      <c r="F5">
+        <v>1.290137048027948</v>
+      </c>
+      <c r="G5">
+        <v>3.168901425956231</v>
+      </c>
+      <c r="H5">
+        <v>1.415693707877298</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -597,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.770496255757845</v>
+        <v>1.955281933118538</v>
       </c>
       <c r="D6">
-        <v>0.8455606707034417</v>
+        <v>4.102402651833141</v>
       </c>
       <c r="E6">
-        <v>1.141126881370727</v>
+        <v>5.252885254876821</v>
       </c>
       <c r="F6">
-        <v>1.290137048027948</v>
+        <v>3.769793642927434</v>
       </c>
       <c r="G6">
-        <v>3.168901425956231</v>
+        <v>12.26179850071101</v>
       </c>
       <c r="H6">
-        <v>1.415693707877298</v>
+        <v>4.371020978539936</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,28 +638,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.955281933118538</v>
+        <v>1.858571121042668</v>
       </c>
       <c r="D7">
-        <v>4.102402651833141</v>
+        <v>2.053073845614117</v>
       </c>
       <c r="E7">
-        <v>5.252885254876821</v>
+        <v>4.13589763522485</v>
       </c>
       <c r="F7">
-        <v>3.769793642927434</v>
+        <v>1.579686925148361</v>
       </c>
       <c r="G7">
-        <v>12.26179850071101</v>
+        <v>8.22220121739271</v>
       </c>
       <c r="H7">
-        <v>4.371020978539936</v>
+        <v>1.943285457940514</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.645652859083259</v>
+      </c>
+      <c r="D8">
+        <v>4.923320065531976</v>
+      </c>
+      <c r="E8">
+        <v>8.371895046125575</v>
+      </c>
+      <c r="F8">
+        <v>4.348801649514811</v>
+      </c>
+      <c r="G8">
+        <v>15.98270652111384</v>
+      </c>
+      <c r="H8">
+        <v>5.058771779446134</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -654,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.858571121042668</v>
+        <v>5.838736765864812</v>
       </c>
       <c r="D9">
-        <v>2.053073845614117</v>
+        <v>6.348505517201715</v>
       </c>
       <c r="E9">
-        <v>4.13589763522485</v>
+        <v>8.180860925329204</v>
       </c>
       <c r="F9">
-        <v>1.579686925148361</v>
+        <v>3.587391718155164</v>
       </c>
       <c r="G9">
-        <v>8.22220121739271</v>
+        <v>22.73690834837821</v>
       </c>
       <c r="H9">
-        <v>1.943285457940514</v>
+        <v>5.001548052688432</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -680,22 +716,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.645652859083259</v>
+        <v>6.847057822256958</v>
       </c>
       <c r="D10">
-        <v>4.923320065531976</v>
+        <v>6.287312833513839</v>
       </c>
       <c r="E10">
-        <v>8.371895046125575</v>
+        <v>10.1765995633394</v>
       </c>
       <c r="F10">
-        <v>4.348801649514811</v>
+        <v>4.356109532239084</v>
       </c>
       <c r="G10">
-        <v>15.98270652111384</v>
+        <v>43.84679884380596</v>
       </c>
       <c r="H10">
-        <v>5.058771779446134</v>
+        <v>4.108252317695768</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -706,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.838736765864812</v>
+        <v>8.559910776754668</v>
       </c>
       <c r="D11">
-        <v>6.348505517201715</v>
+        <v>7.695794081761398</v>
       </c>
       <c r="E11">
-        <v>8.180860925329204</v>
+        <v>17.11366518790324</v>
       </c>
       <c r="F11">
-        <v>3.587391718155164</v>
+        <v>7.09168202658038</v>
       </c>
       <c r="G11">
-        <v>22.73690834837821</v>
+        <v>28.09673365934896</v>
       </c>
       <c r="H11">
-        <v>5.001548052688432</v>
+        <v>8.895061080816395</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -732,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.847057822256958</v>
+        <v>2.590434439248998</v>
       </c>
       <c r="D12">
-        <v>6.287312833513839</v>
+        <v>2.912396933516852</v>
       </c>
       <c r="E12">
-        <v>10.1765995633394</v>
+        <v>6.677993027423265</v>
       </c>
       <c r="F12">
-        <v>4.356109532239084</v>
+        <v>2.25628953284218</v>
       </c>
       <c r="G12">
-        <v>43.84679884380596</v>
+        <v>12.089404002465</v>
       </c>
       <c r="H12">
-        <v>4.108252317695768</v>
+        <v>2.799959247302231</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -758,22 +794,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.559910776754668</v>
+        <v>5.896058610886286</v>
       </c>
       <c r="D13">
-        <v>7.695794081761398</v>
+        <v>9.105810063359208</v>
       </c>
       <c r="E13">
-        <v>17.11366518790324</v>
+        <v>14.05297386787735</v>
       </c>
       <c r="F13">
-        <v>7.09168202658038</v>
+        <v>5.834819896350476</v>
       </c>
       <c r="G13">
-        <v>28.09673365934896</v>
+        <v>24.70852386971362</v>
       </c>
       <c r="H13">
-        <v>8.895061080816395</v>
+        <v>6.308578416579074</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -784,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.590434439248998</v>
+        <v>4.397223752159753</v>
       </c>
       <c r="D14">
-        <v>2.912396933516852</v>
+        <v>5.214406927339884</v>
       </c>
       <c r="E14">
-        <v>6.677993027423265</v>
+        <v>9.728256562674582</v>
       </c>
       <c r="F14">
-        <v>2.25628953284218</v>
+        <v>4.081394994685315</v>
       </c>
       <c r="G14">
-        <v>12.089404002465</v>
+        <v>22.66145755533375</v>
       </c>
       <c r="H14">
-        <v>2.799959247302231</v>
+        <v>4.702050905295774</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -810,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.896058610886286</v>
+        <v>1.356096379650773</v>
       </c>
       <c r="D15">
-        <v>9.105810063359208</v>
+        <v>1.479651817259306</v>
       </c>
       <c r="E15">
-        <v>14.05297386787735</v>
+        <v>2.851607982768836</v>
       </c>
       <c r="F15">
-        <v>5.834819896350476</v>
+        <v>1.391221097431862</v>
       </c>
       <c r="G15">
-        <v>24.70852386971362</v>
+        <v>4.593814988014588</v>
       </c>
       <c r="H15">
-        <v>6.308578416579074</v>
+        <v>1.584236026885226</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.397223752159753</v>
+        <v>6.060216627147675</v>
       </c>
       <c r="D16">
-        <v>5.214406927339884</v>
+        <v>5.43637079788247</v>
       </c>
       <c r="E16">
-        <v>9.728256562674582</v>
+        <v>18.14152884778565</v>
       </c>
       <c r="F16">
-        <v>4.081394994685315</v>
+        <v>5.617427714288956</v>
       </c>
       <c r="G16">
-        <v>22.66145755533375</v>
+        <v>16.28222752742928</v>
       </c>
       <c r="H16">
-        <v>4.702050905295774</v>
+        <v>6.225430069827801</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -862,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.356096379650773</v>
+        <v>7.392578098020994</v>
       </c>
       <c r="D17">
-        <v>1.479651817259306</v>
+        <v>9.517944301202032</v>
       </c>
       <c r="E17">
-        <v>2.851607982768836</v>
+        <v>11.07479375126055</v>
       </c>
       <c r="F17">
-        <v>1.391221097431862</v>
+        <v>4.883373622603077</v>
       </c>
       <c r="G17">
-        <v>4.593814988014588</v>
+        <v>23.38261406086701</v>
       </c>
       <c r="H17">
-        <v>1.584236026885226</v>
+        <v>5.833658678130097</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -888,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.060216627147675</v>
+        <v>2.171000251852891</v>
       </c>
       <c r="D18">
-        <v>5.43637079788247</v>
+        <v>2.569805445924075</v>
       </c>
       <c r="E18">
-        <v>18.14152884778565</v>
+        <v>5.349429555900114</v>
       </c>
       <c r="F18">
-        <v>5.617427714288956</v>
+        <v>2.641273328570098</v>
       </c>
       <c r="G18">
-        <v>16.28222752742928</v>
+        <v>14.79719535801278</v>
       </c>
       <c r="H18">
-        <v>6.225430069827801</v>
+        <v>3.024074803322805</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -914,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.392578098020994</v>
+        <v>4.198128511442031</v>
       </c>
       <c r="D19">
-        <v>9.517944301202032</v>
+        <v>4.264414751096379</v>
       </c>
       <c r="E19">
-        <v>11.07479375126055</v>
+        <v>7.712467254345216</v>
       </c>
       <c r="F19">
-        <v>4.883373622603077</v>
+        <v>5.593275801574683</v>
       </c>
       <c r="G19">
-        <v>23.38261406086701</v>
+        <v>17.56499448205111</v>
       </c>
       <c r="H19">
-        <v>5.833658678130097</v>
+        <v>5.972045598477302</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -940,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.171000251852891</v>
+        <v>7.128586322156663</v>
       </c>
       <c r="D20">
-        <v>2.569805445924075</v>
+        <v>7.428106755860726</v>
       </c>
       <c r="E20">
-        <v>5.349429555900114</v>
+        <v>8.158941669800676</v>
       </c>
       <c r="F20">
-        <v>2.641273328570098</v>
+        <v>6.585829414581316</v>
       </c>
       <c r="G20">
-        <v>14.79719535801278</v>
+        <v>27.6574885178863</v>
       </c>
       <c r="H20">
-        <v>3.024074803322805</v>
+        <v>7.340895463861668</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -966,22 +1002,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.198128511442031</v>
+        <v>3.464357940176391</v>
       </c>
       <c r="D21">
-        <v>4.264414751096379</v>
+        <v>3.67825774571656</v>
       </c>
       <c r="E21">
-        <v>7.712467254345216</v>
+        <v>4.596457922719002</v>
       </c>
       <c r="F21">
-        <v>5.593275801574683</v>
+        <v>3.129193225725001</v>
       </c>
       <c r="G21">
-        <v>17.56499448205111</v>
+        <v>11.66959540277323</v>
       </c>
       <c r="H21">
-        <v>5.972045598477302</v>
+        <v>3.666542558092048</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -992,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.128586322156663</v>
+        <v>5.782255610756952</v>
       </c>
       <c r="D22">
-        <v>7.428106755860726</v>
+        <v>6.698954670998905</v>
       </c>
       <c r="E22">
-        <v>8.158941669800676</v>
+        <v>11.73771339764722</v>
       </c>
       <c r="F22">
-        <v>6.585829414581316</v>
+        <v>6.979180939141591</v>
       </c>
       <c r="G22">
-        <v>27.6574885178863</v>
+        <v>29.70711671510325</v>
       </c>
       <c r="H22">
-        <v>7.340895463861668</v>
+        <v>7.661171936517672</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1018,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.464357940176391</v>
+        <v>4.600117992953852</v>
       </c>
       <c r="D23">
-        <v>3.67825774571656</v>
+        <v>6.509600933425263</v>
       </c>
       <c r="E23">
-        <v>4.596457922719002</v>
+        <v>12.01781042773359</v>
       </c>
       <c r="F23">
-        <v>3.129193225725001</v>
+        <v>5.529106698691118</v>
       </c>
       <c r="G23">
-        <v>11.66959540277323</v>
+        <v>20.51669084110089</v>
       </c>
       <c r="H23">
-        <v>3.666542558092048</v>
+        <v>5.582005338842967</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1044,22 +1080,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.782255610756952</v>
+        <v>2.672057893526602</v>
       </c>
       <c r="D24">
-        <v>6.698954670998905</v>
+        <v>2.813630020894762</v>
       </c>
       <c r="E24">
-        <v>11.73771339764722</v>
+        <v>6.137057098842925</v>
       </c>
       <c r="F24">
-        <v>6.979180939141591</v>
+        <v>2.122635417440107</v>
       </c>
       <c r="G24">
-        <v>29.70711671510325</v>
+        <v>5.991921894448981</v>
       </c>
       <c r="H24">
-        <v>7.661171936517672</v>
+        <v>2.875827663578427</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1070,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.600117992953852</v>
+        <v>1.326838039971052</v>
       </c>
       <c r="D25">
-        <v>6.509600933425263</v>
+        <v>1.479482650311692</v>
       </c>
       <c r="E25">
-        <v>12.01781042773359</v>
+        <v>1.530037390620406</v>
       </c>
       <c r="F25">
-        <v>5.529106698691118</v>
+        <v>2.578835851470735</v>
       </c>
       <c r="G25">
-        <v>20.51669084110089</v>
+        <v>5.789970803463433</v>
       </c>
       <c r="H25">
-        <v>5.582005338842967</v>
+        <v>2.851905404207428</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1096,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2.672057893526602</v>
+        <v>2.638577739699218</v>
       </c>
       <c r="D26">
-        <v>2.813630020894762</v>
+        <v>2.995718206297259</v>
       </c>
       <c r="E26">
-        <v>6.137057098842925</v>
+        <v>3.609261678060249</v>
       </c>
       <c r="F26">
-        <v>2.122635417440107</v>
+        <v>3.31674498269273</v>
       </c>
       <c r="G26">
-        <v>5.991921894448981</v>
+        <v>9.82124843636041</v>
       </c>
       <c r="H26">
-        <v>2.875827663578427</v>
+        <v>3.790629017983797</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1122,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.326838039971052</v>
+        <v>6.501358576758864</v>
       </c>
       <c r="D27">
-        <v>1.479482650311692</v>
+        <v>5.971618248282216</v>
       </c>
       <c r="E27">
-        <v>1.530037390620406</v>
+        <v>7.885462368545936</v>
       </c>
       <c r="F27">
-        <v>2.578835851470735</v>
+        <v>6.914064830391727</v>
       </c>
       <c r="G27">
-        <v>5.789970803463433</v>
+        <v>18.3143984248317</v>
       </c>
       <c r="H27">
-        <v>2.851905404207428</v>
+        <v>7.940994644899504</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1148,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.638577739699218</v>
+        <v>2.532083441506917</v>
       </c>
       <c r="D28">
-        <v>2.995718206297259</v>
+        <v>2.833166393967953</v>
       </c>
       <c r="E28">
-        <v>3.609261678060249</v>
+        <v>2.927016030744897</v>
       </c>
       <c r="F28">
-        <v>3.31674498269273</v>
+        <v>4.515392199773389</v>
       </c>
       <c r="G28">
-        <v>9.82124843636041</v>
+        <v>9.893944258860866</v>
       </c>
       <c r="H28">
-        <v>3.790629017983797</v>
+        <v>5.387245999401467</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1174,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6.501358576758864</v>
+        <v>1.901626511530075</v>
       </c>
       <c r="D29">
-        <v>5.971618248282216</v>
+        <v>2.130233380140496</v>
       </c>
       <c r="E29">
-        <v>7.885462368545936</v>
+        <v>1.912753218300838</v>
       </c>
       <c r="F29">
-        <v>6.914064830391727</v>
+        <v>4.2841305146148</v>
       </c>
       <c r="G29">
-        <v>18.3143984248317</v>
+        <v>9.895877939352056</v>
       </c>
       <c r="H29">
-        <v>7.940994644899504</v>
+        <v>4.665262439880203</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1200,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.532083441506917</v>
+        <v>1.677902467493146</v>
       </c>
       <c r="D30">
-        <v>2.833166393967953</v>
+        <v>2.237073370429997</v>
       </c>
       <c r="E30">
-        <v>2.927016030744897</v>
+        <v>1.121999567051793</v>
       </c>
       <c r="F30">
-        <v>4.515392199773389</v>
+        <v>4.658216204263786</v>
       </c>
       <c r="G30">
-        <v>9.893944258860866</v>
+        <v>9.793004336488369</v>
       </c>
       <c r="H30">
-        <v>5.387245999401467</v>
+        <v>5.414162050769307</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1226,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.901626511530075</v>
+        <v>2.362954104674298</v>
       </c>
       <c r="D31">
-        <v>2.130233380140496</v>
+        <v>3.153494467844913</v>
       </c>
       <c r="E31">
-        <v>1.912753218300838</v>
+        <v>1.805650334063005</v>
       </c>
       <c r="F31">
-        <v>4.2841305146148</v>
+        <v>6.39693250134102</v>
       </c>
       <c r="G31">
-        <v>9.895877939352056</v>
+        <v>20.99115733235835</v>
       </c>
       <c r="H31">
-        <v>4.665262439880203</v>
+        <v>6.868890742948022</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1252,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.677902467493146</v>
+        <v>4.072720721134385</v>
       </c>
       <c r="D32">
-        <v>2.237073370429997</v>
+        <v>6.868917037137097</v>
       </c>
       <c r="E32">
-        <v>1.121999567051793</v>
+        <v>2.518098988855356</v>
       </c>
       <c r="F32">
-        <v>4.658216204263786</v>
+        <v>12.29188585592118</v>
       </c>
       <c r="G32">
-        <v>9.793004336488369</v>
+        <v>32.65862172016616</v>
       </c>
       <c r="H32">
-        <v>5.414162050769307</v>
+        <v>12.88515885710989</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1278,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.362954104674298</v>
+        <v>2.841784386740958</v>
       </c>
       <c r="D33">
-        <v>3.153494467844913</v>
+        <v>3.42803209737912</v>
       </c>
       <c r="E33">
-        <v>1.805650334063005</v>
+        <v>1.643552006776114</v>
       </c>
       <c r="F33">
-        <v>6.39693250134102</v>
+        <v>7.907372070846998</v>
       </c>
       <c r="G33">
-        <v>20.99115733235835</v>
+        <v>10.58794274419743</v>
       </c>
       <c r="H33">
-        <v>6.868890742948022</v>
+        <v>11.16069099340469</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1304,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>4.072720721134385</v>
+        <v>1.918238438910347</v>
       </c>
       <c r="D34">
-        <v>6.868917037137097</v>
+        <v>2.201452122840551</v>
       </c>
       <c r="E34">
-        <v>2.518098988855356</v>
+        <v>2.947847549605805</v>
       </c>
       <c r="F34">
-        <v>12.29188585592118</v>
+        <v>2.034563740200745</v>
       </c>
       <c r="G34">
-        <v>32.65862172016616</v>
+        <v>7.371629406335483</v>
       </c>
       <c r="H34">
-        <v>12.88515885710989</v>
+        <v>2.338667211939428</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1330,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2.841784386740958</v>
+        <v>4.787382850632991</v>
       </c>
       <c r="D35">
-        <v>3.42803209737912</v>
+        <v>7.156397044760656</v>
       </c>
       <c r="E35">
-        <v>1.643552006776114</v>
+        <v>9.437780803326843</v>
       </c>
       <c r="F35">
-        <v>7.907372070846998</v>
+        <v>6.368545572622764</v>
       </c>
       <c r="G35">
-        <v>10.58794274419743</v>
+        <v>25.22015895245796</v>
       </c>
       <c r="H35">
-        <v>11.16069099340469</v>
+        <v>7.439098298934366</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1356,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.918238438910347</v>
+        <v>4.54643664820325</v>
       </c>
       <c r="D36">
-        <v>2.201452122840551</v>
+        <v>4.642151103954897</v>
       </c>
       <c r="E36">
-        <v>2.947847549605805</v>
+        <v>8.052635897231111</v>
       </c>
       <c r="F36">
-        <v>2.034563740200745</v>
+        <v>5.832644780132259</v>
       </c>
       <c r="G36">
-        <v>7.371629406335483</v>
+        <v>15.73674940156646</v>
       </c>
       <c r="H36">
-        <v>2.338667211939428</v>
+        <v>7.661395920196687</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1382,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4.787382850632991</v>
+        <v>2.985009622080828</v>
       </c>
       <c r="D37">
-        <v>7.156397044760656</v>
+        <v>3.576041527252832</v>
       </c>
       <c r="E37">
-        <v>9.437780803326843</v>
+        <v>4.100627705744694</v>
       </c>
       <c r="F37">
-        <v>6.368545572622764</v>
+        <v>2.810316210334721</v>
       </c>
       <c r="G37">
-        <v>25.22015895245796</v>
+        <v>11.20993127493947</v>
       </c>
       <c r="H37">
-        <v>7.439098298934366</v>
+        <v>2.894523223820201</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1408,73 +1444,21 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>4.54643664820325</v>
+        <v>3.330285800981946</v>
       </c>
       <c r="D38">
-        <v>4.642151103954897</v>
+        <v>3.450761256314626</v>
       </c>
       <c r="E38">
-        <v>8.052635897231111</v>
+        <v>5.267035409994063</v>
       </c>
       <c r="F38">
-        <v>5.832644780132259</v>
+        <v>3.580624237532416</v>
       </c>
       <c r="G38">
-        <v>15.73674940156646</v>
+        <v>12.47726943288051</v>
       </c>
       <c r="H38">
-        <v>7.661395920196687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>2.985009622080828</v>
-      </c>
-      <c r="D39">
-        <v>3.576041527252832</v>
-      </c>
-      <c r="E39">
-        <v>4.100627705744694</v>
-      </c>
-      <c r="F39">
-        <v>2.810316210334721</v>
-      </c>
-      <c r="G39">
-        <v>11.20993127493947</v>
-      </c>
-      <c r="H39">
-        <v>2.894523223820201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>3.330285800981946</v>
-      </c>
-      <c r="D40">
-        <v>3.450761256314626</v>
-      </c>
-      <c r="E40">
-        <v>5.267035409994063</v>
-      </c>
-      <c r="F40">
-        <v>3.580624237532416</v>
-      </c>
-      <c r="G40">
-        <v>12.47726943288051</v>
-      </c>
-      <c r="H40">
         <v>4.460160136694816</v>
       </c>
     </row>
